--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_CAROLINA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_CAROLINA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1617"/>
+  <dimension ref="A1:D1611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C36">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C42">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C50">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C56">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C85">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C89">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C105">
@@ -1772,7 +1772,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C107">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C146">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C150">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C157">
@@ -2453,7 +2453,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2497,7 +2497,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2692,7 +2692,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2892,7 +2892,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C192">
@@ -3027,7 +3027,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C202">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C205">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C216">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C222">
@@ -3318,7 +3318,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C224">
@@ -3409,12 +3409,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C231">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C236">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C242">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C250">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C257">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C265">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C278">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4142,7 +4142,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C289">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C291">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C299">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C309">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C316">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C319">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C320">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C331">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C332">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C341">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C345">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C352">
@@ -5057,7 +5057,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C357">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C359">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C361">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C362">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C364">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C365">
@@ -5226,7 +5226,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C370">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C380">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C387">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C392">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C394">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C400">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C404">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C405">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C413">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C416">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C419">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C425">
@@ -6089,7 +6089,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C436">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C441">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C445">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C446">
@@ -6245,7 +6245,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C448">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C453">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C460">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C467">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C473">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C477">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C481">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C485">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C492">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C493">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C494">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C497">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C498">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C501">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C506">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C507">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C511">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C514">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C517">
@@ -7251,7 +7251,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C525">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C526">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C530">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C534">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C538">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C540">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C546">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C556">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C566">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C569">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C576">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C580">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C583">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C586">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C591">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C592">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C595">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C596">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C599">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C601">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C603">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -8535,7 +8535,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C623">
@@ -9367,7 +9367,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C687">
@@ -9684,7 +9684,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C711">
@@ -9840,7 +9840,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C723">
@@ -9905,7 +9905,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C728">
@@ -10040,7 +10040,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C738">
@@ -10053,7 +10053,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C739">
@@ -10105,7 +10105,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C743">
@@ -10183,7 +10183,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C749">
@@ -10409,7 +10409,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C766">
@@ -10448,7 +10448,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C769">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C773">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C778">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C781">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C783">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C794">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C802">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C804">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C805">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C807">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C813">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C821">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C838">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C840">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C846">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C855">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C859">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C883">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C897">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C915">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C919">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C938">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C939">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C971">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1028">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1034">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1035">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1036">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1038">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1044">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1045">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1046">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1048">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1051">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1054">
@@ -14410,7 +14410,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1073">
@@ -14605,7 +14605,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1088">
@@ -14748,7 +14748,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1099">
@@ -14787,7 +14787,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1102">
@@ -14800,7 +14800,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1103">
@@ -14826,7 +14826,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1105">
@@ -14917,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1112">
@@ -15021,7 +15021,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15281,7 +15281,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1140">
@@ -15294,7 +15294,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1141">
@@ -15359,7 +15359,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1146">
@@ -15437,7 +15437,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1152">
@@ -15450,7 +15450,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1153">
@@ -15502,7 +15502,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1157">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1159">
@@ -15541,7 +15541,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1160">
@@ -15554,7 +15554,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1161">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1166">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1178">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1196">
@@ -16040,7 +16040,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1198">
@@ -16131,7 +16131,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1205">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1206">
@@ -16183,7 +16183,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1209">
@@ -16222,7 +16222,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1212">
@@ -16414,7 +16414,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1226">
@@ -16427,7 +16427,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1227">
@@ -16492,7 +16492,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1232">
@@ -16609,7 +16609,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1241">
@@ -16674,7 +16674,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1246">
@@ -16752,7 +16752,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1252">
@@ -16778,7 +16778,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1254">
@@ -16921,7 +16921,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1265">
@@ -16934,7 +16934,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1266">
@@ -16947,7 +16947,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1267">
@@ -16960,7 +16960,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1268">
@@ -16973,7 +16973,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1269">
@@ -17521,7 +17521,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1310">
@@ -17955,7 +17955,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1343">
@@ -18155,7 +18155,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1358">
@@ -18168,7 +18168,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1359">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1360">
@@ -18207,7 +18207,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1362">
@@ -18220,7 +18220,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1363">
@@ -18233,7 +18233,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1364">
@@ -18259,7 +18259,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1366">
@@ -18298,7 +18298,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1369">
@@ -18428,7 +18428,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
@@ -18511,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1385">
@@ -18550,7 +18550,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1388">
@@ -18667,7 +18667,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1397">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1399">
@@ -18719,7 +18719,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1401">
@@ -18745,7 +18745,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1403">
@@ -18992,7 +18992,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1422">
@@ -19226,7 +19226,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1440">
@@ -19239,7 +19239,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1441">
@@ -19291,7 +19291,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1445">
@@ -19317,7 +19317,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1447">
@@ -19330,7 +19330,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1448">
@@ -19343,7 +19343,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1449">
@@ -19473,7 +19473,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1459">
@@ -19525,7 +19525,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1463">
@@ -19590,7 +19590,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1468">
@@ -19668,7 +19668,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1474">
@@ -19694,7 +19694,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1476">
@@ -19811,7 +19811,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1485">
@@ -19850,7 +19850,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1488">
@@ -19863,7 +19863,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1489">
@@ -19915,7 +19915,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1493">
@@ -20045,7 +20045,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1503">
@@ -20084,7 +20084,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1506">
@@ -20162,7 +20162,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1512">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1530">
@@ -20565,7 +20565,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1543">
@@ -20708,7 +20708,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1554">
@@ -20900,7 +20900,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1568">
@@ -20926,7 +20926,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1570">
@@ -20939,7 +20939,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1571">
@@ -21056,7 +21056,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1580">
@@ -21147,7 +21147,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1587">
@@ -21160,7 +21160,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1588">
@@ -21290,7 +21290,7 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1598">
@@ -21303,7 +21303,7 @@
     <row r="1599">
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1599">
@@ -21329,7 +21329,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1601">
@@ -21407,7 +21407,7 @@
     <row r="1607">
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1607">
@@ -21459,7 +21459,7 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1611">
@@ -21467,41 +21467,6 @@
       </c>
       <c r="D1611">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
